--- a/Excel/WBS.xlsx
+++ b/Excel/WBS.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="17">
   <si>
     <t>Wall E Engineered Wood Kids Bookshelf In Silver Grey Colour
 By Boingg! - A Happy Start
